--- a/data/raw/election/voters-age-sex-education/2023/Hakkari.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Hakkari.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:42:01-16432887487" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="34">
   <si>
     <t>Hakkari</t>
   </si>
@@ -116,6 +115,12 @@
   </si>
   <si>
     <t>Yüksekova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -649,7 +654,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -663,16 +668,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -997,10 +1011,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:A136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,48 +1034,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1118,8 +1132,8 @@
       <c r="G6" s="4">
         <v>467</v>
       </c>
-      <c r="H6" s="4">
-        <v>1.375</v>
+      <c r="H6" s="5">
+        <v>1375</v>
       </c>
       <c r="I6" s="4">
         <v>289</v>
@@ -1133,8 +1147,8 @@
       <c r="L6" s="4">
         <v>45</v>
       </c>
-      <c r="M6" s="5">
-        <v>2.2240000000000002</v>
+      <c r="M6" s="6">
+        <v>2224</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1172,7 +1186,7 @@
       <c r="L7" s="4">
         <v>28</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="7">
         <v>905</v>
       </c>
     </row>
@@ -1198,8 +1212,8 @@
       <c r="G8" s="4">
         <v>407</v>
       </c>
-      <c r="H8" s="4">
-        <v>1.3859999999999999</v>
+      <c r="H8" s="5">
+        <v>1386</v>
       </c>
       <c r="I8" s="4">
         <v>650</v>
@@ -1213,8 +1227,8 @@
       <c r="L8" s="4">
         <v>15</v>
       </c>
-      <c r="M8" s="5">
-        <v>2.52</v>
+      <c r="M8" s="6">
+        <v>2520</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1252,7 +1266,7 @@
       <c r="L9" s="4">
         <v>11</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="7">
         <v>658</v>
       </c>
     </row>
@@ -1293,8 +1307,8 @@
       <c r="L10" s="4">
         <v>9</v>
       </c>
-      <c r="M10" s="5">
-        <v>1.044</v>
+      <c r="M10" s="6">
+        <v>1044</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1332,7 +1346,7 @@
       <c r="L11" s="4">
         <v>5</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="7">
         <v>420</v>
       </c>
     </row>
@@ -1373,7 +1387,7 @@
       <c r="L12" s="4">
         <v>5</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="7">
         <v>432</v>
       </c>
     </row>
@@ -1412,7 +1426,7 @@
       <c r="L13" s="4">
         <v>3</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="7">
         <v>287</v>
       </c>
     </row>
@@ -1453,7 +1467,7 @@
       <c r="L14" s="4">
         <v>5</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="7">
         <v>379</v>
       </c>
     </row>
@@ -1492,7 +1506,7 @@
       <c r="L15" s="4">
         <v>10</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="7">
         <v>337</v>
       </c>
     </row>
@@ -1533,7 +1547,7 @@
       <c r="L16" s="4">
         <v>13</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="7">
         <v>311</v>
       </c>
     </row>
@@ -1572,7 +1586,7 @@
       <c r="L17" s="4">
         <v>6</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="7">
         <v>214</v>
       </c>
     </row>
@@ -1613,7 +1627,7 @@
       <c r="L18" s="4">
         <v>15</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="7">
         <v>240</v>
       </c>
     </row>
@@ -1652,7 +1666,7 @@
       <c r="L19" s="4">
         <v>6</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="7">
         <v>172</v>
       </c>
     </row>
@@ -1693,7 +1707,7 @@
       <c r="L20" s="4">
         <v>5</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="7">
         <v>170</v>
       </c>
     </row>
@@ -1732,7 +1746,7 @@
       <c r="L21" s="4">
         <v>2</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="7">
         <v>173</v>
       </c>
     </row>
@@ -1773,7 +1787,7 @@
       <c r="L22" s="4">
         <v>1</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="7">
         <v>115</v>
       </c>
     </row>
@@ -1812,7 +1826,7 @@
       <c r="L23" s="4">
         <v>3</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="7">
         <v>131</v>
       </c>
     </row>
@@ -1853,7 +1867,7 @@
       <c r="L24" s="4">
         <v>1</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="7">
         <v>91</v>
       </c>
     </row>
@@ -1892,7 +1906,7 @@
       <c r="L25" s="4">
         <v>2</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="7">
         <v>140</v>
       </c>
     </row>
@@ -1933,7 +1947,7 @@
       <c r="L26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="7">
         <v>58</v>
       </c>
     </row>
@@ -1972,7 +1986,7 @@
       <c r="L27" s="4">
         <v>1</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="7">
         <v>89</v>
       </c>
     </row>
@@ -2013,7 +2027,7 @@
       <c r="L28" s="4">
         <v>3</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="7">
         <v>90</v>
       </c>
     </row>
@@ -2052,7 +2066,7 @@
       <c r="L29" s="4">
         <v>12</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="7">
         <v>137</v>
       </c>
     </row>
@@ -2060,46 +2074,46 @@
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="8"/>
+      <c r="C30" s="7">
         <v>272</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="7">
         <v>277</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="7">
         <v>679</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="7">
         <v>629</v>
       </c>
-      <c r="G30" s="5">
-        <v>2.0139999999999998</v>
-      </c>
-      <c r="H30" s="5">
-        <v>4.9859999999999998</v>
-      </c>
-      <c r="I30" s="5">
-        <v>2.169</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="G30" s="6">
+        <v>2014</v>
+      </c>
+      <c r="H30" s="6">
+        <v>4986</v>
+      </c>
+      <c r="I30" s="6">
+        <v>2169</v>
+      </c>
+      <c r="J30" s="7">
         <v>101</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="7">
         <v>4</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="7">
         <v>206</v>
       </c>
-      <c r="M30" s="5">
-        <v>11.337</v>
+      <c r="M30" s="6">
+        <v>11337</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2156,8 +2170,8 @@
       <c r="G32" s="4">
         <v>678</v>
       </c>
-      <c r="H32" s="4">
-        <v>1.764</v>
+      <c r="H32" s="5">
+        <v>1764</v>
       </c>
       <c r="I32" s="4">
         <v>214</v>
@@ -2171,8 +2185,8 @@
       <c r="L32" s="4">
         <v>88</v>
       </c>
-      <c r="M32" s="5">
-        <v>2.9820000000000002</v>
+      <c r="M32" s="6">
+        <v>2982</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2210,8 +2224,8 @@
       <c r="L33" s="4">
         <v>73</v>
       </c>
-      <c r="M33" s="5">
-        <v>2.0579999999999998</v>
+      <c r="M33" s="6">
+        <v>2058</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2236,8 +2250,8 @@
       <c r="G34" s="4">
         <v>246</v>
       </c>
-      <c r="H34" s="4">
-        <v>1.097</v>
+      <c r="H34" s="5">
+        <v>1097</v>
       </c>
       <c r="I34" s="4">
         <v>422</v>
@@ -2251,8 +2265,8 @@
       <c r="L34" s="4">
         <v>17</v>
       </c>
-      <c r="M34" s="5">
-        <v>1.94</v>
+      <c r="M34" s="6">
+        <v>1940</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2290,8 +2304,8 @@
       <c r="L35" s="4">
         <v>9</v>
       </c>
-      <c r="M35" s="5">
-        <v>1.1160000000000001</v>
+      <c r="M35" s="6">
+        <v>1116</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2331,7 +2345,7 @@
       <c r="L36" s="4">
         <v>4</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="7">
         <v>999</v>
       </c>
     </row>
@@ -2370,7 +2384,7 @@
       <c r="L37" s="4">
         <v>8</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="7">
         <v>716</v>
       </c>
     </row>
@@ -2411,7 +2425,7 @@
       <c r="L38" s="4">
         <v>10</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="7">
         <v>604</v>
       </c>
     </row>
@@ -2450,7 +2464,7 @@
       <c r="L39" s="4">
         <v>13</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="7">
         <v>595</v>
       </c>
     </row>
@@ -2491,7 +2505,7 @@
       <c r="L40" s="4">
         <v>12</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="7">
         <v>759</v>
       </c>
     </row>
@@ -2530,7 +2544,7 @@
       <c r="L41" s="4">
         <v>13</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="7">
         <v>678</v>
       </c>
     </row>
@@ -2571,7 +2585,7 @@
       <c r="L42" s="4">
         <v>12</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="7">
         <v>344</v>
       </c>
     </row>
@@ -2610,7 +2624,7 @@
       <c r="L43" s="4">
         <v>6</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="7">
         <v>342</v>
       </c>
     </row>
@@ -2651,7 +2665,7 @@
       <c r="L44" s="4">
         <v>7</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="7">
         <v>171</v>
       </c>
     </row>
@@ -2690,7 +2704,7 @@
       <c r="L45" s="4">
         <v>7</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="7">
         <v>182</v>
       </c>
     </row>
@@ -2731,7 +2745,7 @@
       <c r="L46" s="4">
         <v>6</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="7">
         <v>217</v>
       </c>
     </row>
@@ -2770,7 +2784,7 @@
       <c r="L47" s="4">
         <v>10</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="7">
         <v>227</v>
       </c>
     </row>
@@ -2811,7 +2825,7 @@
       <c r="L48" s="4">
         <v>5</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="7">
         <v>170</v>
       </c>
     </row>
@@ -2850,7 +2864,7 @@
       <c r="L49" s="4">
         <v>5</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="7">
         <v>166</v>
       </c>
     </row>
@@ -2891,7 +2905,7 @@
       <c r="L50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="7">
         <v>90</v>
       </c>
     </row>
@@ -2930,7 +2944,7 @@
       <c r="L51" s="4">
         <v>1</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="7">
         <v>93</v>
       </c>
     </row>
@@ -2971,7 +2985,7 @@
       <c r="L52" s="4">
         <v>3</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="7">
         <v>80</v>
       </c>
     </row>
@@ -3010,7 +3024,7 @@
       <c r="L53" s="4">
         <v>2</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="7">
         <v>90</v>
       </c>
     </row>
@@ -3051,7 +3065,7 @@
       <c r="L54" s="4">
         <v>5</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="7">
         <v>68</v>
       </c>
     </row>
@@ -3090,7 +3104,7 @@
       <c r="L55" s="4">
         <v>12</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="7">
         <v>195</v>
       </c>
     </row>
@@ -3098,46 +3112,46 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1.365</v>
-      </c>
-      <c r="E56" s="5">
-        <v>1.054</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="B56" s="8"/>
+      <c r="C56" s="6">
+        <v>1300</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1365</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1054</v>
+      </c>
+      <c r="F56" s="7">
         <v>416</v>
       </c>
-      <c r="G56" s="5">
-        <v>4.0570000000000004</v>
-      </c>
-      <c r="H56" s="5">
-        <v>4.9589999999999996</v>
-      </c>
-      <c r="I56" s="5">
-        <v>1.321</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="G56" s="6">
+        <v>4057</v>
+      </c>
+      <c r="H56" s="6">
+        <v>4959</v>
+      </c>
+      <c r="I56" s="6">
+        <v>1321</v>
+      </c>
+      <c r="J56" s="7">
         <v>80</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="7">
         <v>2</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="7">
         <v>328</v>
       </c>
-      <c r="M56" s="5">
-        <v>14.882</v>
+      <c r="M56" s="6">
+        <v>14882</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3191,11 +3205,11 @@
       <c r="F58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="4">
-        <v>1.294</v>
-      </c>
-      <c r="H58" s="4">
-        <v>3.4020000000000001</v>
+      <c r="G58" s="5">
+        <v>1294</v>
+      </c>
+      <c r="H58" s="5">
+        <v>3402</v>
       </c>
       <c r="I58" s="4">
         <v>494</v>
@@ -3209,8 +3223,8 @@
       <c r="L58" s="4">
         <v>43</v>
       </c>
-      <c r="M58" s="5">
-        <v>5.2839999999999998</v>
+      <c r="M58" s="6">
+        <v>5284</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3230,11 +3244,11 @@
       <c r="F59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="4">
-        <v>1.115</v>
-      </c>
-      <c r="H59" s="4">
-        <v>3.5790000000000002</v>
+      <c r="G59" s="5">
+        <v>1115</v>
+      </c>
+      <c r="H59" s="5">
+        <v>3579</v>
       </c>
       <c r="I59" s="4">
         <v>628</v>
@@ -3248,8 +3262,8 @@
       <c r="L59" s="4">
         <v>17</v>
       </c>
-      <c r="M59" s="5">
-        <v>5.4009999999999998</v>
+      <c r="M59" s="6">
+        <v>5401</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3274,11 +3288,11 @@
       <c r="G60" s="4">
         <v>744</v>
       </c>
-      <c r="H60" s="4">
-        <v>2.0390000000000001</v>
-      </c>
-      <c r="I60" s="4">
-        <v>2.0190000000000001</v>
+      <c r="H60" s="5">
+        <v>2039</v>
+      </c>
+      <c r="I60" s="5">
+        <v>2019</v>
       </c>
       <c r="J60" s="4">
         <v>100</v>
@@ -3289,8 +3303,8 @@
       <c r="L60" s="4">
         <v>25</v>
       </c>
-      <c r="M60" s="5">
-        <v>4.992</v>
+      <c r="M60" s="6">
+        <v>4992</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3313,11 +3327,11 @@
       <c r="G61" s="4">
         <v>780</v>
       </c>
-      <c r="H61" s="4">
-        <v>1.345</v>
-      </c>
-      <c r="I61" s="4">
-        <v>1.889</v>
+      <c r="H61" s="5">
+        <v>1345</v>
+      </c>
+      <c r="I61" s="5">
+        <v>1889</v>
       </c>
       <c r="J61" s="4">
         <v>99</v>
@@ -3328,8 +3342,8 @@
       <c r="L61" s="4">
         <v>19</v>
       </c>
-      <c r="M61" s="5">
-        <v>4.3280000000000003</v>
+      <c r="M61" s="6">
+        <v>4328</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3354,11 +3368,11 @@
       <c r="G62" s="4">
         <v>373</v>
       </c>
-      <c r="H62" s="4">
-        <v>1.456</v>
-      </c>
-      <c r="I62" s="4">
-        <v>2.0499999999999998</v>
+      <c r="H62" s="5">
+        <v>1456</v>
+      </c>
+      <c r="I62" s="5">
+        <v>2050</v>
       </c>
       <c r="J62" s="4">
         <v>255</v>
@@ -3369,8 +3383,8 @@
       <c r="L62" s="4">
         <v>23</v>
       </c>
-      <c r="M62" s="5">
-        <v>4.4210000000000003</v>
+      <c r="M62" s="6">
+        <v>4421</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3396,8 +3410,8 @@
       <c r="H63" s="4">
         <v>974</v>
       </c>
-      <c r="I63" s="4">
-        <v>1.196</v>
+      <c r="I63" s="5">
+        <v>1196</v>
       </c>
       <c r="J63" s="4">
         <v>115</v>
@@ -3408,8 +3422,8 @@
       <c r="L63" s="4">
         <v>10</v>
       </c>
-      <c r="M63" s="5">
-        <v>3.327</v>
+      <c r="M63" s="6">
+        <v>3327</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3434,8 +3448,8 @@
       <c r="G64" s="4">
         <v>151</v>
       </c>
-      <c r="H64" s="4">
-        <v>1.081</v>
+      <c r="H64" s="5">
+        <v>1081</v>
       </c>
       <c r="I64" s="4">
         <v>972</v>
@@ -3449,8 +3463,8 @@
       <c r="L64" s="4">
         <v>25</v>
       </c>
-      <c r="M64" s="5">
-        <v>2.706</v>
+      <c r="M64" s="6">
+        <v>2706</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3488,8 +3502,8 @@
       <c r="L65" s="4">
         <v>22</v>
       </c>
-      <c r="M65" s="5">
-        <v>2.4750000000000001</v>
+      <c r="M65" s="6">
+        <v>2475</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3514,8 +3528,8 @@
       <c r="G66" s="4">
         <v>327</v>
       </c>
-      <c r="H66" s="4">
-        <v>1.075</v>
+      <c r="H66" s="5">
+        <v>1075</v>
       </c>
       <c r="I66" s="4">
         <v>696</v>
@@ -3529,8 +3543,8 @@
       <c r="L66" s="4">
         <v>22</v>
       </c>
-      <c r="M66" s="5">
-        <v>2.6040000000000001</v>
+      <c r="M66" s="6">
+        <v>2604</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3568,8 +3582,8 @@
       <c r="L67" s="4">
         <v>18</v>
       </c>
-      <c r="M67" s="5">
-        <v>2.5270000000000001</v>
+      <c r="M67" s="6">
+        <v>2527</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3609,8 +3623,8 @@
       <c r="L68" s="4">
         <v>34</v>
       </c>
-      <c r="M68" s="5">
-        <v>2.1259999999999999</v>
+      <c r="M68" s="6">
+        <v>2126</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3648,8 +3662,8 @@
       <c r="L69" s="4">
         <v>12</v>
       </c>
-      <c r="M69" s="5">
-        <v>1.9219999999999999</v>
+      <c r="M69" s="6">
+        <v>1922</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3689,8 +3703,8 @@
       <c r="L70" s="4">
         <v>13</v>
       </c>
-      <c r="M70" s="5">
-        <v>1.6439999999999999</v>
+      <c r="M70" s="6">
+        <v>1644</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3728,8 +3742,8 @@
       <c r="L71" s="4">
         <v>20</v>
       </c>
-      <c r="M71" s="5">
-        <v>1.3260000000000001</v>
+      <c r="M71" s="6">
+        <v>1326</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3769,8 +3783,8 @@
       <c r="L72" s="4">
         <v>8</v>
       </c>
-      <c r="M72" s="5">
-        <v>1.236</v>
+      <c r="M72" s="6">
+        <v>1236</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3808,8 +3822,8 @@
       <c r="L73" s="4">
         <v>14</v>
       </c>
-      <c r="M73" s="5">
-        <v>1.046</v>
+      <c r="M73" s="6">
+        <v>1046</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3849,7 +3863,7 @@
       <c r="L74" s="4">
         <v>2</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="7">
         <v>890</v>
       </c>
     </row>
@@ -3888,7 +3902,7 @@
       <c r="L75" s="4">
         <v>10</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="7">
         <v>900</v>
       </c>
     </row>
@@ -3929,7 +3943,7 @@
       <c r="L76" s="4">
         <v>4</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="7">
         <v>716</v>
       </c>
     </row>
@@ -3968,7 +3982,7 @@
       <c r="L77" s="4">
         <v>14</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="7">
         <v>860</v>
       </c>
     </row>
@@ -4009,7 +4023,7 @@
       <c r="L78" s="4">
         <v>3</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="7">
         <v>386</v>
       </c>
     </row>
@@ -4048,7 +4062,7 @@
       <c r="L79" s="4">
         <v>16</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="7">
         <v>586</v>
       </c>
     </row>
@@ -4089,7 +4103,7 @@
       <c r="L80" s="4">
         <v>10</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="7">
         <v>428</v>
       </c>
     </row>
@@ -4128,7 +4142,7 @@
       <c r="L81" s="4">
         <v>24</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="7">
         <v>672</v>
       </c>
     </row>
@@ -4136,46 +4150,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>1.764</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="E82" s="5">
-        <v>3.1309999999999998</v>
-      </c>
-      <c r="F82" s="5">
-        <v>3.1349999999999998</v>
-      </c>
-      <c r="G82" s="5">
-        <v>9.8520000000000003</v>
-      </c>
-      <c r="H82" s="5">
-        <v>20.396000000000001</v>
-      </c>
-      <c r="I82" s="5">
-        <v>11.917999999999999</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="B82" s="8"/>
+      <c r="C82" s="6">
+        <v>1764</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1098</v>
+      </c>
+      <c r="E82" s="6">
+        <v>3131</v>
+      </c>
+      <c r="F82" s="6">
+        <v>3135</v>
+      </c>
+      <c r="G82" s="6">
+        <v>9852</v>
+      </c>
+      <c r="H82" s="6">
+        <v>20396</v>
+      </c>
+      <c r="I82" s="6">
+        <v>11918</v>
+      </c>
+      <c r="J82" s="7">
         <v>971</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="7">
         <v>130</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="7">
         <v>408</v>
       </c>
-      <c r="M82" s="5">
-        <v>52.802999999999997</v>
+      <c r="M82" s="6">
+        <v>52803</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4229,11 +4243,11 @@
       <c r="F84" s="4">
         <v>1</v>
       </c>
-      <c r="G84" s="4">
-        <v>1.034</v>
-      </c>
-      <c r="H84" s="4">
-        <v>1.84</v>
+      <c r="G84" s="5">
+        <v>1034</v>
+      </c>
+      <c r="H84" s="5">
+        <v>1840</v>
       </c>
       <c r="I84" s="4">
         <v>213</v>
@@ -4247,8 +4261,8 @@
       <c r="L84" s="4">
         <v>49</v>
       </c>
-      <c r="M84" s="5">
-        <v>3.2949999999999999</v>
+      <c r="M84" s="6">
+        <v>3295</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4268,11 +4282,11 @@
       <c r="F85" s="4">
         <v>7</v>
       </c>
-      <c r="G85" s="4">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="H85" s="4">
-        <v>1.669</v>
+      <c r="G85" s="5">
+        <v>1201</v>
+      </c>
+      <c r="H85" s="5">
+        <v>1669</v>
       </c>
       <c r="I85" s="4">
         <v>181</v>
@@ -4286,8 +4300,8 @@
       <c r="L85" s="4">
         <v>24</v>
       </c>
-      <c r="M85" s="5">
-        <v>3.3479999999999999</v>
+      <c r="M85" s="6">
+        <v>3348</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4312,8 +4326,8 @@
       <c r="G86" s="4">
         <v>449</v>
       </c>
-      <c r="H86" s="4">
-        <v>1.3759999999999999</v>
+      <c r="H86" s="5">
+        <v>1376</v>
       </c>
       <c r="I86" s="4">
         <v>774</v>
@@ -4327,8 +4341,8 @@
       <c r="L86" s="4">
         <v>30</v>
       </c>
-      <c r="M86" s="5">
-        <v>2.82</v>
+      <c r="M86" s="6">
+        <v>2820</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4366,8 +4380,8 @@
       <c r="L87" s="4">
         <v>25</v>
       </c>
-      <c r="M87" s="5">
-        <v>2.3730000000000002</v>
+      <c r="M87" s="6">
+        <v>2373</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4407,8 +4421,8 @@
       <c r="L88" s="4">
         <v>13</v>
       </c>
-      <c r="M88" s="5">
-        <v>2.1320000000000001</v>
+      <c r="M88" s="6">
+        <v>2132</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4446,8 +4460,8 @@
       <c r="L89" s="4">
         <v>27</v>
       </c>
-      <c r="M89" s="5">
-        <v>1.722</v>
+      <c r="M89" s="6">
+        <v>1722</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4487,8 +4501,8 @@
       <c r="L90" s="4">
         <v>22</v>
       </c>
-      <c r="M90" s="5">
-        <v>1.4179999999999999</v>
+      <c r="M90" s="6">
+        <v>1418</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4526,8 +4540,8 @@
       <c r="L91" s="4">
         <v>15</v>
       </c>
-      <c r="M91" s="5">
-        <v>1.228</v>
+      <c r="M91" s="6">
+        <v>1228</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4567,8 +4581,8 @@
       <c r="L92" s="4">
         <v>18</v>
       </c>
-      <c r="M92" s="5">
-        <v>1.387</v>
+      <c r="M92" s="6">
+        <v>1387</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4606,8 +4620,8 @@
       <c r="L93" s="4">
         <v>14</v>
       </c>
-      <c r="M93" s="5">
-        <v>1.478</v>
+      <c r="M93" s="6">
+        <v>1478</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4647,7 +4661,7 @@
       <c r="L94" s="4">
         <v>17</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="7">
         <v>710</v>
       </c>
     </row>
@@ -4686,7 +4700,7 @@
       <c r="L95" s="4">
         <v>15</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="7">
         <v>793</v>
       </c>
     </row>
@@ -4727,7 +4741,7 @@
       <c r="L96" s="4">
         <v>14</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="7">
         <v>612</v>
       </c>
     </row>
@@ -4766,7 +4780,7 @@
       <c r="L97" s="4">
         <v>12</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="7">
         <v>560</v>
       </c>
     </row>
@@ -4807,7 +4821,7 @@
       <c r="L98" s="4">
         <v>6</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="7">
         <v>514</v>
       </c>
     </row>
@@ -4846,7 +4860,7 @@
       <c r="L99" s="4">
         <v>8</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="7">
         <v>540</v>
       </c>
     </row>
@@ -4887,7 +4901,7 @@
       <c r="L100" s="4">
         <v>6</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="7">
         <v>395</v>
       </c>
     </row>
@@ -4926,7 +4940,7 @@
       <c r="L101" s="4">
         <v>8</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="7">
         <v>451</v>
       </c>
     </row>
@@ -4967,7 +4981,7 @@
       <c r="L102" s="4">
         <v>4</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="7">
         <v>224</v>
       </c>
     </row>
@@ -5006,7 +5020,7 @@
       <c r="L103" s="4">
         <v>5</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="7">
         <v>300</v>
       </c>
     </row>
@@ -5047,7 +5061,7 @@
       <c r="L104" s="4">
         <v>2</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="7">
         <v>215</v>
       </c>
     </row>
@@ -5086,7 +5100,7 @@
       <c r="L105" s="4">
         <v>4</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="7">
         <v>233</v>
       </c>
     </row>
@@ -5127,7 +5141,7 @@
       <c r="L106" s="4">
         <v>5</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="7">
         <v>182</v>
       </c>
     </row>
@@ -5166,7 +5180,7 @@
       <c r="L107" s="4">
         <v>11</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="7">
         <v>332</v>
       </c>
     </row>
@@ -5174,46 +5188,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="D108" s="5">
-        <v>1.504</v>
-      </c>
-      <c r="E108" s="5">
-        <v>2.238</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1.0660000000000001</v>
-      </c>
-      <c r="G108" s="5">
-        <v>6.5289999999999999</v>
-      </c>
-      <c r="H108" s="5">
-        <v>10.532</v>
-      </c>
-      <c r="I108" s="5">
-        <v>3.1920000000000002</v>
-      </c>
-      <c r="J108" s="5">
+      <c r="B108" s="8"/>
+      <c r="C108" s="6">
+        <v>1567</v>
+      </c>
+      <c r="D108" s="6">
+        <v>1504</v>
+      </c>
+      <c r="E108" s="6">
+        <v>2238</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1066</v>
+      </c>
+      <c r="G108" s="6">
+        <v>6529</v>
+      </c>
+      <c r="H108" s="6">
+        <v>10532</v>
+      </c>
+      <c r="I108" s="6">
+        <v>3192</v>
+      </c>
+      <c r="J108" s="7">
         <v>273</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="7">
         <v>7</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="7">
         <v>354</v>
       </c>
-      <c r="M108" s="5">
-        <v>27.262</v>
+      <c r="M108" s="6">
+        <v>27262</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5267,11 +5281,11 @@
       <c r="F110" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G110" s="4">
-        <v>2.6349999999999998</v>
-      </c>
-      <c r="H110" s="4">
-        <v>4.976</v>
+      <c r="G110" s="5">
+        <v>2635</v>
+      </c>
+      <c r="H110" s="5">
+        <v>4976</v>
       </c>
       <c r="I110" s="4">
         <v>561</v>
@@ -5285,8 +5299,8 @@
       <c r="L110" s="4">
         <v>110</v>
       </c>
-      <c r="M110" s="5">
-        <v>8.5630000000000006</v>
+      <c r="M110" s="6">
+        <v>8563</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5306,11 +5320,11 @@
       <c r="F111" s="4">
         <v>7</v>
       </c>
-      <c r="G111" s="4">
-        <v>2.1909999999999998</v>
-      </c>
-      <c r="H111" s="4">
-        <v>5.194</v>
+      <c r="G111" s="5">
+        <v>2191</v>
+      </c>
+      <c r="H111" s="5">
+        <v>5194</v>
       </c>
       <c r="I111" s="4">
         <v>657</v>
@@ -5324,8 +5338,8 @@
       <c r="L111" s="4">
         <v>65</v>
       </c>
-      <c r="M111" s="5">
-        <v>8.4160000000000004</v>
+      <c r="M111" s="6">
+        <v>8416</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5347,14 +5361,14 @@
       <c r="F112" s="4">
         <v>99</v>
       </c>
-      <c r="G112" s="4">
-        <v>1.361</v>
-      </c>
-      <c r="H112" s="4">
-        <v>2.98</v>
-      </c>
-      <c r="I112" s="4">
-        <v>2.0409999999999999</v>
+      <c r="G112" s="5">
+        <v>1361</v>
+      </c>
+      <c r="H112" s="5">
+        <v>2980</v>
+      </c>
+      <c r="I112" s="5">
+        <v>2041</v>
       </c>
       <c r="J112" s="4">
         <v>120</v>
@@ -5365,8 +5379,8 @@
       <c r="L112" s="4">
         <v>54</v>
       </c>
-      <c r="M112" s="5">
-        <v>6.843</v>
+      <c r="M112" s="6">
+        <v>6843</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5386,14 +5400,14 @@
       <c r="F113" s="4">
         <v>232</v>
       </c>
-      <c r="G113" s="4">
-        <v>1.446</v>
-      </c>
-      <c r="H113" s="4">
-        <v>2.0880000000000001</v>
-      </c>
-      <c r="I113" s="4">
-        <v>1.9990000000000001</v>
+      <c r="G113" s="5">
+        <v>1446</v>
+      </c>
+      <c r="H113" s="5">
+        <v>2088</v>
+      </c>
+      <c r="I113" s="5">
+        <v>1999</v>
       </c>
       <c r="J113" s="4">
         <v>69</v>
@@ -5404,8 +5418,8 @@
       <c r="L113" s="4">
         <v>86</v>
       </c>
-      <c r="M113" s="5">
-        <v>6.3819999999999997</v>
+      <c r="M113" s="6">
+        <v>6382</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5430,11 +5444,11 @@
       <c r="G114" s="4">
         <v>693</v>
       </c>
-      <c r="H114" s="4">
-        <v>2.1869999999999998</v>
-      </c>
-      <c r="I114" s="4">
-        <v>2.206</v>
+      <c r="H114" s="5">
+        <v>2187</v>
+      </c>
+      <c r="I114" s="5">
+        <v>2206</v>
       </c>
       <c r="J114" s="4">
         <v>318</v>
@@ -5445,8 +5459,8 @@
       <c r="L114" s="4">
         <v>72</v>
       </c>
-      <c r="M114" s="5">
-        <v>6.2</v>
+      <c r="M114" s="6">
+        <v>6200</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5469,11 +5483,11 @@
       <c r="G115" s="4">
         <v>926</v>
       </c>
-      <c r="H115" s="4">
-        <v>1.724</v>
-      </c>
-      <c r="I115" s="4">
-        <v>1.24</v>
+      <c r="H115" s="5">
+        <v>1724</v>
+      </c>
+      <c r="I115" s="5">
+        <v>1240</v>
       </c>
       <c r="J115" s="4">
         <v>112</v>
@@ -5484,8 +5498,8 @@
       <c r="L115" s="4">
         <v>91</v>
       </c>
-      <c r="M115" s="5">
-        <v>5.48</v>
+      <c r="M115" s="6">
+        <v>5480</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5510,11 +5524,11 @@
       <c r="G116" s="4">
         <v>523</v>
       </c>
-      <c r="H116" s="4">
-        <v>1.7629999999999999</v>
-      </c>
-      <c r="I116" s="4">
-        <v>1.0149999999999999</v>
+      <c r="H116" s="5">
+        <v>1763</v>
+      </c>
+      <c r="I116" s="5">
+        <v>1015</v>
       </c>
       <c r="J116" s="4">
         <v>166</v>
@@ -5525,8 +5539,8 @@
       <c r="L116" s="4">
         <v>62</v>
       </c>
-      <c r="M116" s="5">
-        <v>4.3380000000000001</v>
+      <c r="M116" s="6">
+        <v>4338</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5549,8 +5563,8 @@
       <c r="G117" s="4">
         <v>778</v>
       </c>
-      <c r="H117" s="4">
-        <v>1.35</v>
+      <c r="H117" s="5">
+        <v>1350</v>
       </c>
       <c r="I117" s="4">
         <v>387</v>
@@ -5564,8 +5578,8 @@
       <c r="L117" s="4">
         <v>75</v>
       </c>
-      <c r="M117" s="5">
-        <v>4.0229999999999997</v>
+      <c r="M117" s="6">
+        <v>4023</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5590,8 +5604,8 @@
       <c r="G118" s="4">
         <v>730</v>
       </c>
-      <c r="H118" s="4">
-        <v>1.8009999999999999</v>
+      <c r="H118" s="5">
+        <v>1801</v>
       </c>
       <c r="I118" s="4">
         <v>536</v>
@@ -5605,8 +5619,8 @@
       <c r="L118" s="4">
         <v>84</v>
       </c>
-      <c r="M118" s="5">
-        <v>4.4850000000000003</v>
+      <c r="M118" s="6">
+        <v>4485</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5626,11 +5640,11 @@
       <c r="F119" s="4">
         <v>365</v>
       </c>
-      <c r="G119" s="4">
-        <v>1.0720000000000001</v>
-      </c>
-      <c r="H119" s="4">
-        <v>1.2450000000000001</v>
+      <c r="G119" s="5">
+        <v>1072</v>
+      </c>
+      <c r="H119" s="5">
+        <v>1245</v>
       </c>
       <c r="I119" s="4">
         <v>138</v>
@@ -5644,8 +5658,8 @@
       <c r="L119" s="4">
         <v>80</v>
       </c>
-      <c r="M119" s="5">
-        <v>4.492</v>
+      <c r="M119" s="6">
+        <v>4492</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5685,8 +5699,8 @@
       <c r="L120" s="4">
         <v>52</v>
       </c>
-      <c r="M120" s="5">
-        <v>2.758</v>
+      <c r="M120" s="6">
+        <v>2758</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5724,8 +5738,8 @@
       <c r="L121" s="4">
         <v>62</v>
       </c>
-      <c r="M121" s="5">
-        <v>2.605</v>
+      <c r="M121" s="6">
+        <v>2605</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5765,8 +5779,8 @@
       <c r="L122" s="4">
         <v>34</v>
       </c>
-      <c r="M122" s="5">
-        <v>2.0939999999999999</v>
+      <c r="M122" s="6">
+        <v>2094</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5804,8 +5818,8 @@
       <c r="L123" s="4">
         <v>50</v>
       </c>
-      <c r="M123" s="5">
-        <v>1.9159999999999999</v>
+      <c r="M123" s="6">
+        <v>1916</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5845,8 +5859,8 @@
       <c r="L124" s="4">
         <v>32</v>
       </c>
-      <c r="M124" s="5">
-        <v>1.831</v>
+      <c r="M124" s="6">
+        <v>1831</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5884,8 +5898,8 @@
       <c r="L125" s="4">
         <v>43</v>
       </c>
-      <c r="M125" s="5">
-        <v>1.7729999999999999</v>
+      <c r="M125" s="6">
+        <v>1773</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5925,8 +5939,8 @@
       <c r="L126" s="4">
         <v>21</v>
       </c>
-      <c r="M126" s="5">
-        <v>1.2989999999999999</v>
+      <c r="M126" s="6">
+        <v>1299</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5964,8 +5978,8 @@
       <c r="L127" s="4">
         <v>43</v>
       </c>
-      <c r="M127" s="5">
-        <v>1.4450000000000001</v>
+      <c r="M127" s="6">
+        <v>1445</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6005,7 +6019,7 @@
       <c r="L128" s="4">
         <v>7</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="7">
         <v>881</v>
       </c>
     </row>
@@ -6044,8 +6058,8 @@
       <c r="L129" s="4">
         <v>22</v>
       </c>
-      <c r="M129" s="5">
-        <v>1.0680000000000001</v>
+      <c r="M129" s="6">
+        <v>1068</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6085,7 +6099,7 @@
       <c r="L130" s="4">
         <v>16</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="7">
         <v>591</v>
       </c>
     </row>
@@ -6124,7 +6138,7 @@
       <c r="L131" s="4">
         <v>30</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="7">
         <v>808</v>
       </c>
     </row>
@@ -6165,7 +6179,7 @@
       <c r="L132" s="4">
         <v>25</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="7">
         <v>703</v>
       </c>
     </row>
@@ -6204,7 +6218,7 @@
       <c r="L133" s="4">
         <v>51</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="7">
         <v>956</v>
       </c>
     </row>
@@ -6212,49 +6226,59 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>3.5270000000000001</v>
-      </c>
-      <c r="D134" s="5">
-        <v>4.2539999999999996</v>
-      </c>
-      <c r="E134" s="5">
-        <v>7.4880000000000004</v>
-      </c>
-      <c r="F134" s="5">
-        <v>5</v>
-      </c>
-      <c r="G134" s="5">
-        <v>16.047000000000001</v>
-      </c>
-      <c r="H134" s="5">
-        <v>29.934999999999999</v>
-      </c>
-      <c r="I134" s="5">
-        <v>11.412000000000001</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="B134" s="8"/>
+      <c r="C134" s="6">
+        <v>3527</v>
+      </c>
+      <c r="D134" s="6">
+        <v>4254</v>
+      </c>
+      <c r="E134" s="6">
+        <v>7488</v>
+      </c>
+      <c r="F134" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G134" s="6">
+        <v>16047</v>
+      </c>
+      <c r="H134" s="6">
+        <v>29935</v>
+      </c>
+      <c r="I134" s="6">
+        <v>11412</v>
+      </c>
+      <c r="J134" s="7">
         <v>988</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="7">
         <v>32</v>
       </c>
-      <c r="L134" s="5">
-        <v>1.2669999999999999</v>
-      </c>
-      <c r="M134" s="5">
-        <v>79.95</v>
+      <c r="L134" s="6">
+        <v>1267</v>
+      </c>
+      <c r="M134" s="6">
+        <v>79950</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A135" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A136" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
